--- a/Datacentrosdecosto.xlsx
+++ b/Datacentrosdecosto.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AhxelLuis\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://qanders-my.sharepoint.com/personal/ahxel_zavala_anders_group/Documents/Documentos/Proyecto/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D97769-7AC3-4119-92DF-90E5DB2C4FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{24A246F9-088B-4D79-86C7-915C7C15BA7C}"/>
+    <workbookView xWindow="38790" yWindow="390" windowWidth="22020" windowHeight="15345" xr2:uid="{24A246F9-088B-4D79-86C7-915C7C15BA7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -1043,7 +1043,7 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
